--- a/output/PiN_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/PiN_overview_OCHA_Somalia___SOM.xlsx
@@ -665,7 +665,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -768,7 +768,7 @@
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>TOTAL (5-17 y.o.)</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
@@ -827,7 +827,7 @@
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="10" t="inlineStr">
         <is>
-          <t>Host Community (5-17 y.o.)</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr">
@@ -886,7 +886,7 @@
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>New IDPs (5-17 y.o.)</t>
+          <t>New IDPs</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -945,7 +945,7 @@
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>Protracted IDPs (5-17 y.o.)</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="18" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="F12" s="18" t="inlineStr">
@@ -1432,7 +1432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -1452,7 +1452,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- Host Community (5-17 y.o.)</t>
+          <t>PIN -- Host Community</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -3190,7 +3190,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- New IDPs (5-17 y.o.)</t>
+          <t>PIN -- New IDPs</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -3789,7 +3789,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- Protracted IDPs (5-17 y.o.)</t>
+          <t>PIN -- Protracted IDPs</t>
         </is>
       </c>
     </row>

--- a/output/PiN_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/PiN_overview_OCHA_Somalia___SOM.xlsx
@@ -665,7 +665,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -768,7 +768,7 @@
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>TOTAL (5-17 y.o.)</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
@@ -827,7 +827,7 @@
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="10" t="inlineStr">
         <is>
-          <t>Host Community</t>
+          <t>Host Community (5-17 y.o.)</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr">
@@ -886,7 +886,7 @@
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>New IDPs</t>
+          <t>New IDPs (5-17 y.o.)</t>
         </is>
       </c>
       <c r="F8" s="10" t="inlineStr">
@@ -945,7 +945,7 @@
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>Protracted IDPs</t>
+          <t>Protracted IDPs (5-17 y.o.)</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="18" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>ECE (5 y.o.)</t>
         </is>
       </c>
       <c r="F12" s="18" t="inlineStr">
@@ -1432,7 +1432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -1452,7 +1452,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- Host Community</t>
+          <t>PIN -- Host Community (5-17 y.o.)</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -3190,7 +3190,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- New IDPs</t>
+          <t>PIN -- New IDPs (5-17 y.o.)</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -3789,7 +3789,7 @@
     <row r="1">
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>PIN -- Protracted IDPs</t>
+          <t>PIN -- Protracted IDPs (5-17 y.o.)</t>
         </is>
       </c>
     </row>

--- a/output/PiN_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/PiN_overview_OCHA_Somalia___SOM.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -259,6 +259,20 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -653,15 +667,15 @@
   <cols>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="16" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
@@ -763,47 +777,47 @@
         </is>
       </c>
       <c r="G6" s="7" t="n">
-        <v>133947</v>
+        <v>4108701</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I6" s="8" t="n">
-        <v>45335</v>
+        <v>1528061</v>
       </c>
       <c r="J6" s="8" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K6" s="8" t="n">
-        <v>73884</v>
+        <v>1871198</v>
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="M6" s="8" t="n">
-        <v>14403</v>
+        <v>558853</v>
       </c>
       <c r="N6" s="8" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O6" s="8" t="n">
-        <v>325</v>
+        <v>150589</v>
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>88612</v>
+        <v>2580640</v>
       </c>
     </row>
     <row r="7">
@@ -822,47 +836,47 @@
         </is>
       </c>
       <c r="G7" s="10" t="n">
-        <v>93763</v>
+        <v>3203012</v>
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I7" s="11" t="n">
-        <v>38870</v>
+        <v>1192786</v>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="K7" s="11" t="n">
-        <v>43883</v>
+        <v>1431114</v>
       </c>
       <c r="L7" s="11" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="M7" s="11" t="n">
-        <v>11011</v>
+        <v>449916</v>
       </c>
       <c r="N7" s="11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="O7" s="11" t="n">
-        <v>0</v>
+        <v>129197</v>
       </c>
       <c r="P7" s="12" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q7" s="13" t="n">
-        <v>54893</v>
+        <v>2010226</v>
       </c>
     </row>
     <row r="8">
@@ -881,47 +895,47 @@
         </is>
       </c>
       <c r="G8" s="10" t="n">
-        <v>13395</v>
+        <v>153574</v>
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>15.3%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="I8" s="11" t="n">
-        <v>2046</v>
+        <v>42636</v>
       </c>
       <c r="J8" s="11" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>54.8%</t>
         </is>
       </c>
       <c r="K8" s="11" t="n">
-        <v>9910</v>
+        <v>84115</v>
       </c>
       <c r="L8" s="11" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>11.8%</t>
         </is>
       </c>
       <c r="M8" s="11" t="n">
-        <v>1270</v>
+        <v>18123</v>
       </c>
       <c r="N8" s="11" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="O8" s="11" t="n">
-        <v>168</v>
+        <v>8701</v>
       </c>
       <c r="P8" s="12" t="inlineStr">
         <is>
-          <t>84.7%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="Q8" s="13" t="n">
-        <v>11349</v>
+        <v>110938</v>
       </c>
     </row>
     <row r="9">
@@ -940,47 +954,47 @@
         </is>
       </c>
       <c r="G9" s="10" t="n">
-        <v>26789</v>
+        <v>752114</v>
       </c>
       <c r="H9" s="11" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I9" s="11" t="n">
-        <v>4419</v>
+        <v>292639</v>
       </c>
       <c r="J9" s="11" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>47.3%</t>
         </is>
       </c>
       <c r="K9" s="11" t="n">
-        <v>20092</v>
+        <v>355970</v>
       </c>
       <c r="L9" s="11" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>12.1%</t>
         </is>
       </c>
       <c r="M9" s="11" t="n">
-        <v>2122</v>
+        <v>90814</v>
       </c>
       <c r="N9" s="11" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="O9" s="11" t="n">
-        <v>157</v>
+        <v>12692</v>
       </c>
       <c r="P9" s="12" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>61.1%</t>
         </is>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>22371</v>
+        <v>459476</v>
       </c>
     </row>
     <row r="10">
@@ -999,47 +1013,47 @@
         </is>
       </c>
       <c r="G10" s="14" t="n">
-        <v>53579</v>
+        <v>1892921</v>
       </c>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>36.6%</t>
         </is>
       </c>
       <c r="I10" s="15" t="n">
-        <v>18134</v>
+        <v>691975</v>
       </c>
       <c r="J10" s="15" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.2%</t>
         </is>
       </c>
       <c r="K10" s="15" t="n">
-        <v>29554</v>
+        <v>855606</v>
       </c>
       <c r="L10" s="15" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>14.2%</t>
         </is>
       </c>
       <c r="M10" s="15" t="n">
-        <v>5761</v>
+        <v>268237</v>
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="O10" s="15" t="n">
-        <v>130</v>
+        <v>77104</v>
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>63.4%</t>
         </is>
       </c>
       <c r="Q10" s="17" t="n">
-        <v>35445</v>
+        <v>1200947</v>
       </c>
     </row>
     <row r="11">
@@ -1058,47 +1072,47 @@
         </is>
       </c>
       <c r="G11" s="14" t="n">
-        <v>80368</v>
+        <v>2215780</v>
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="I11" s="15" t="n">
-        <v>27201</v>
+        <v>836086</v>
       </c>
       <c r="J11" s="15" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="K11" s="15" t="n">
-        <v>44331</v>
+        <v>1015593</v>
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="M11" s="15" t="n">
-        <v>8642</v>
+        <v>290616</v>
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O11" s="15" t="n">
-        <v>195</v>
+        <v>73485</v>
       </c>
       <c r="P11" s="16" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.3%</t>
         </is>
       </c>
       <c r="Q11" s="17" t="n">
-        <v>53167</v>
+        <v>1379694</v>
       </c>
     </row>
     <row r="12">
@@ -1117,47 +1131,47 @@
         </is>
       </c>
       <c r="G12" s="18" t="n">
-        <v>13395</v>
+        <v>762535</v>
       </c>
       <c r="H12" s="19" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I12" s="19" t="n">
-        <v>4533</v>
+        <v>323134</v>
       </c>
       <c r="J12" s="19" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="K12" s="19" t="n">
-        <v>7388</v>
+        <v>339122</v>
       </c>
       <c r="L12" s="19" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="M12" s="19" t="n">
-        <v>1440</v>
+        <v>76149</v>
       </c>
       <c r="N12" s="19" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="O12" s="19" t="n">
-        <v>32</v>
+        <v>24131</v>
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>57.6%</t>
         </is>
       </c>
       <c r="Q12" s="21" t="n">
-        <v>8861</v>
+        <v>439401</v>
       </c>
     </row>
     <row r="13">
@@ -1176,47 +1190,47 @@
         </is>
       </c>
       <c r="G13" s="22" t="n">
-        <v>44649</v>
+        <v>1369567</v>
       </c>
       <c r="H13" s="23" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I13" s="23" t="n">
-        <v>15112</v>
+        <v>509354</v>
       </c>
       <c r="J13" s="23" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K13" s="23" t="n">
-        <v>24628</v>
+        <v>623733</v>
       </c>
       <c r="L13" s="23" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="M13" s="23" t="n">
-        <v>4801</v>
+        <v>186284</v>
       </c>
       <c r="N13" s="23" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O13" s="23" t="n">
-        <v>108</v>
+        <v>50196</v>
       </c>
       <c r="P13" s="24" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q13" s="25" t="n">
-        <v>29537</v>
+        <v>860213</v>
       </c>
     </row>
     <row r="14">
@@ -1235,47 +1249,47 @@
         </is>
       </c>
       <c r="G14" s="22" t="n">
-        <v>55811</v>
+        <v>1711959</v>
       </c>
       <c r="H14" s="23" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I14" s="23" t="n">
-        <v>18889</v>
+        <v>636692</v>
       </c>
       <c r="J14" s="23" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K14" s="23" t="n">
-        <v>30785</v>
+        <v>779666</v>
       </c>
       <c r="L14" s="23" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="M14" s="23" t="n">
-        <v>6001</v>
+        <v>232856</v>
       </c>
       <c r="N14" s="23" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O14" s="23" t="n">
-        <v>135</v>
+        <v>62745</v>
       </c>
       <c r="P14" s="24" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q14" s="25" t="n">
-        <v>36922</v>
+        <v>1075267</v>
       </c>
     </row>
     <row r="15">
@@ -1294,47 +1308,47 @@
         </is>
       </c>
       <c r="G15" s="22" t="n">
-        <v>33487</v>
+        <v>1027175</v>
       </c>
       <c r="H15" s="23" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I15" s="23" t="n">
-        <v>11334</v>
+        <v>382015</v>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K15" s="23" t="n">
-        <v>18471</v>
+        <v>467800</v>
       </c>
       <c r="L15" s="23" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="M15" s="23" t="n">
-        <v>3601</v>
+        <v>139713</v>
       </c>
       <c r="N15" s="23" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O15" s="23" t="n">
-        <v>81</v>
+        <v>37647</v>
       </c>
       <c r="P15" s="24" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q15" s="25" t="n">
-        <v>22153</v>
+        <v>645160</v>
       </c>
     </row>
     <row r="16">
@@ -1353,47 +1367,47 @@
         </is>
       </c>
       <c r="G16" s="26" t="n">
-        <v>13395</v>
+        <v>410870</v>
       </c>
       <c r="H16" s="27" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I16" s="27" t="n">
-        <v>4533</v>
+        <v>152806</v>
       </c>
       <c r="J16" s="27" t="inlineStr">
         <is>
-          <t>55.2%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K16" s="27" t="n">
-        <v>7388</v>
+        <v>187120</v>
       </c>
       <c r="L16" s="27" t="inlineStr">
         <is>
-          <t>10.8%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="M16" s="27" t="n">
-        <v>1440</v>
+        <v>55885</v>
       </c>
       <c r="N16" s="27" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O16" s="27" t="n">
-        <v>32</v>
+        <v>15059</v>
       </c>
       <c r="P16" s="28" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="Q16" s="29" t="n">
-        <v>8861</v>
+        <v>258064</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,15 +1435,15 @@
     <col width="35" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="16" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
@@ -1452,7 +1466,7 @@
       <c r="D5" s="30" t="n"/>
       <c r="E5" s="31" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="31" t="inlineStr">
@@ -1533,61 +1547,1602 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="37" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>243100</v>
+      </c>
+      <c r="I6" s="39" t="inlineStr">
+        <is>
+          <t>36.1%</t>
+        </is>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>87688</v>
+      </c>
+      <c r="K6" s="40" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>53665</v>
+      </c>
+      <c r="M6" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N6" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="42" t="inlineStr">
+        <is>
+          <t>41.9%</t>
+        </is>
+      </c>
+      <c r="P6" s="42" t="n">
+        <v>101746</v>
+      </c>
+      <c r="Q6" s="12" t="inlineStr">
+        <is>
+          <t>63.9%</t>
+        </is>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>155412</v>
+      </c>
+      <c r="S6" s="13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H7" s="38" t="n">
+        <v>115725</v>
+      </c>
+      <c r="I7" s="39" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>40061</v>
+      </c>
+      <c r="K7" s="40" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>68701</v>
+      </c>
+      <c r="M7" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N7" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="42" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="42" t="n">
+        <v>6964</v>
+      </c>
+      <c r="Q7" s="12" t="inlineStr">
+        <is>
+          <t>65.4%</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>75665</v>
+      </c>
+      <c r="S7" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F8" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="38" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H8" s="38" t="n">
         <v>93763</v>
       </c>
-      <c r="I6" s="39" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="J8" s="39" t="n">
+        <v>33929</v>
+      </c>
+      <c r="K8" s="40" t="inlineStr">
+        <is>
+          <t>49.0%</t>
+        </is>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>45945</v>
+      </c>
+      <c r="M8" s="41" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="N8" s="41" t="n">
+        <v>13889</v>
+      </c>
+      <c r="O8" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>59834</v>
+      </c>
+      <c r="S8" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H9" s="38" t="n">
+        <v>173573</v>
+      </c>
+      <c r="I9" s="39" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="J9" s="39" t="n">
+        <v>24824</v>
+      </c>
+      <c r="K9" s="40" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n">
+        <v>116696</v>
+      </c>
+      <c r="M9" s="41" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="N9" s="41" t="n">
+        <v>32054</v>
+      </c>
+      <c r="O9" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P9" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="inlineStr">
+        <is>
+          <t>85.7%</t>
+        </is>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>148750</v>
+      </c>
+      <c r="S9" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H10" s="38" t="n">
+        <v>240015</v>
+      </c>
+      <c r="I10" s="39" t="inlineStr">
+        <is>
+          <t>68.4%</t>
+        </is>
+      </c>
+      <c r="J10" s="39" t="n">
+        <v>164063</v>
+      </c>
+      <c r="K10" s="40" t="inlineStr">
+        <is>
+          <t>23.1%</t>
+        </is>
+      </c>
+      <c r="L10" s="40" t="n">
+        <v>55360</v>
+      </c>
+      <c r="M10" s="41" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="N10" s="41" t="n">
+        <v>16942</v>
+      </c>
+      <c r="O10" s="42" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="P10" s="42" t="n">
+        <v>3649</v>
+      </c>
+      <c r="Q10" s="12" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>75951</v>
+      </c>
+      <c r="S10" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>borama</t>
+        </is>
+      </c>
+      <c r="F11" s="38" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H11" s="38" t="n">
+        <v>81852</v>
+      </c>
+      <c r="I11" s="39" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="J11" s="39" t="n">
+        <v>52247</v>
+      </c>
+      <c r="K11" s="40" t="inlineStr">
+        <is>
+          <t>31.8%</t>
+        </is>
+      </c>
+      <c r="L11" s="40" t="n">
+        <v>26059</v>
+      </c>
+      <c r="M11" s="41" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="N11" s="41" t="n">
+        <v>3547</v>
+      </c>
+      <c r="O11" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>29606</v>
+      </c>
+      <c r="S11" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F12" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H12" s="38" t="n">
+        <v>94050</v>
+      </c>
+      <c r="I12" s="39" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="J12" s="39" t="n">
+        <v>2780</v>
+      </c>
+      <c r="K12" s="40" t="inlineStr">
+        <is>
+          <t>92.6%</t>
+        </is>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>87132</v>
+      </c>
+      <c r="M12" s="41" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="N12" s="41" t="n">
+        <v>4138</v>
+      </c>
+      <c r="O12" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P12" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12" t="inlineStr">
+        <is>
+          <t>97.0%</t>
+        </is>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>91270</v>
+      </c>
+      <c r="S12" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="37" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F13" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H13" s="38" t="n">
+        <v>71100</v>
+      </c>
+      <c r="I13" s="39" t="inlineStr">
+        <is>
+          <t>32.4%</t>
+        </is>
+      </c>
+      <c r="J13" s="39" t="n">
+        <v>23037</v>
+      </c>
+      <c r="K13" s="40" t="inlineStr">
+        <is>
+          <t>61.0%</t>
+        </is>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>43373</v>
+      </c>
+      <c r="M13" s="41" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="N13" s="41" t="n">
+        <v>2781</v>
+      </c>
+      <c r="O13" s="42" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="P13" s="42" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Q13" s="12" t="inlineStr">
+        <is>
+          <t>67.6%</t>
+        </is>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>48063</v>
+      </c>
+      <c r="S13" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="37" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H14" s="38" t="n">
+        <v>206737</v>
+      </c>
+      <c r="I14" s="39" t="inlineStr">
         <is>
           <t>41.5%</t>
         </is>
       </c>
-      <c r="J6" s="39" t="n">
-        <v>38870</v>
-      </c>
-      <c r="K6" s="40" t="inlineStr">
+      <c r="J14" s="39" t="n">
+        <v>85825</v>
+      </c>
+      <c r="K14" s="40" t="inlineStr">
+        <is>
+          <t>43.6%</t>
+        </is>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>90208</v>
+      </c>
+      <c r="M14" s="41" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
+      <c r="N14" s="41" t="n">
+        <v>25061</v>
+      </c>
+      <c r="O14" s="42" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="P14" s="42" t="n">
+        <v>5642</v>
+      </c>
+      <c r="Q14" s="12" t="inlineStr">
+        <is>
+          <t>58.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>120911</v>
+      </c>
+      <c r="S14" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F15" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H15" s="38" t="n">
+        <v>79357</v>
+      </c>
+      <c r="I15" s="39" t="inlineStr">
+        <is>
+          <t>53.2%</t>
+        </is>
+      </c>
+      <c r="J15" s="39" t="n">
+        <v>42247</v>
+      </c>
+      <c r="K15" s="40" t="inlineStr">
+        <is>
+          <t>43.4%</t>
+        </is>
+      </c>
+      <c r="L15" s="40" t="n">
+        <v>34418</v>
+      </c>
+      <c r="M15" s="41" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="N15" s="41" t="n">
+        <v>1564</v>
+      </c>
+      <c r="O15" s="42" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="P15" s="42" t="n">
+        <v>1129</v>
+      </c>
+      <c r="Q15" s="12" t="inlineStr">
         <is>
           <t>46.8%</t>
         </is>
       </c>
-      <c r="L6" s="40" t="n">
-        <v>43883</v>
-      </c>
-      <c r="M6" s="41" t="inlineStr">
-        <is>
-          <t>11.7%</t>
-        </is>
-      </c>
-      <c r="N6" s="41" t="n">
-        <v>11011</v>
-      </c>
-      <c r="O6" s="42" t="inlineStr">
+      <c r="R15" s="12" t="n">
+        <v>37110</v>
+      </c>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="37" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F16" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H16" s="38" t="n">
+        <v>94127</v>
+      </c>
+      <c r="I16" s="39" t="inlineStr">
+        <is>
+          <t>78.5%</t>
+        </is>
+      </c>
+      <c r="J16" s="39" t="n">
+        <v>73884</v>
+      </c>
+      <c r="K16" s="40" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="L16" s="40" t="n">
+        <v>18837</v>
+      </c>
+      <c r="M16" s="41" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="N16" s="41" t="n">
+        <v>1405</v>
+      </c>
+      <c r="O16" s="42" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="P6" s="42" t="n">
+      <c r="P16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="43" t="inlineStr">
-        <is>
-          <t>58.5%</t>
-        </is>
-      </c>
-      <c r="R6" s="43" t="n">
-        <v>54893</v>
-      </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="Q16" s="12" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>20243</v>
+      </c>
+      <c r="S16" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="37" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F17" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H17" s="38" t="n">
+        <v>82380</v>
+      </c>
+      <c r="I17" s="39" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="J17" s="39" t="n">
+        <v>5585</v>
+      </c>
+      <c r="K17" s="40" t="inlineStr">
+        <is>
+          <t>90.1%</t>
+        </is>
+      </c>
+      <c r="L17" s="40" t="n">
+        <v>74257</v>
+      </c>
+      <c r="M17" s="41" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="N17" s="41" t="n">
+        <v>2538</v>
+      </c>
+      <c r="O17" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12" t="inlineStr">
+        <is>
+          <t>93.2%</t>
+        </is>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>76795</v>
+      </c>
+      <c r="S17" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="37" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="F18" s="38" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H18" s="38" t="n">
+        <v>75316</v>
+      </c>
+      <c r="I18" s="39" t="inlineStr">
+        <is>
+          <t>63.8%</t>
+        </is>
+      </c>
+      <c r="J18" s="39" t="n">
+        <v>48040</v>
+      </c>
+      <c r="K18" s="40" t="inlineStr">
+        <is>
+          <t>31.8%</t>
+        </is>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>23948</v>
+      </c>
+      <c r="M18" s="41" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="N18" s="41" t="n">
+        <v>3328</v>
+      </c>
+      <c r="O18" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P18" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="R18" s="12" t="n">
+        <v>27276</v>
+      </c>
+      <c r="S18" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="37" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="F19" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H19" s="38" t="n">
+        <v>49284</v>
+      </c>
+      <c r="I19" s="39" t="inlineStr">
+        <is>
+          <t>38.3%</t>
+        </is>
+      </c>
+      <c r="J19" s="39" t="n">
+        <v>18863</v>
+      </c>
+      <c r="K19" s="40" t="inlineStr">
+        <is>
+          <t>55.7%</t>
+        </is>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>27475</v>
+      </c>
+      <c r="M19" s="41" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="41" t="n">
+        <v>2946</v>
+      </c>
+      <c r="O19" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12" t="inlineStr">
+        <is>
+          <t>61.7%</t>
+        </is>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>30421</v>
+      </c>
+      <c r="S19" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="37" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F20" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H20" s="38" t="n">
+        <v>469612</v>
+      </c>
+      <c r="I20" s="39" t="inlineStr">
+        <is>
+          <t>39.7%</t>
+        </is>
+      </c>
+      <c r="J20" s="39" t="n">
+        <v>186481</v>
+      </c>
+      <c r="K20" s="40" t="inlineStr">
+        <is>
+          <t>58.6%</t>
+        </is>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>275229</v>
+      </c>
+      <c r="M20" s="41" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="N20" s="41" t="n">
+        <v>5560</v>
+      </c>
+      <c r="O20" s="42" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P20" s="42" t="n">
+        <v>2342</v>
+      </c>
+      <c r="Q20" s="12" t="inlineStr">
+        <is>
+          <t>60.3%</t>
+        </is>
+      </c>
+      <c r="R20" s="12" t="n">
+        <v>283132</v>
+      </c>
+      <c r="S20" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="37" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="F21" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H21" s="38" t="n">
+        <v>77970</v>
+      </c>
+      <c r="I21" s="39" t="inlineStr">
+        <is>
+          <t>42.3%</t>
+        </is>
+      </c>
+      <c r="J21" s="39" t="n">
+        <v>33009</v>
+      </c>
+      <c r="K21" s="40" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="L21" s="40" t="n">
+        <v>39276</v>
+      </c>
+      <c r="M21" s="41" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="N21" s="41" t="n">
+        <v>5685</v>
+      </c>
+      <c r="O21" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P21" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12" t="inlineStr">
+        <is>
+          <t>57.7%</t>
+        </is>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>44960</v>
+      </c>
+      <c r="S21" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="37" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F22" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H22" s="38" t="n">
+        <v>85275</v>
+      </c>
+      <c r="I22" s="39" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="J22" s="39" t="n">
+        <v>21495</v>
+      </c>
+      <c r="K22" s="40" t="inlineStr">
+        <is>
+          <t>72.8%</t>
+        </is>
+      </c>
+      <c r="L22" s="40" t="n">
+        <v>62090</v>
+      </c>
+      <c r="M22" s="41" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="N22" s="41" t="n">
+        <v>1691</v>
+      </c>
+      <c r="O22" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P22" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12" t="inlineStr">
+        <is>
+          <t>74.8%</t>
+        </is>
+      </c>
+      <c r="R22" s="12" t="n">
+        <v>63780</v>
+      </c>
+      <c r="S22" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="37" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F23" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H23" s="38" t="n">
+        <v>81840</v>
+      </c>
+      <c r="I23" s="39" t="inlineStr">
+        <is>
+          <t>57.5%</t>
+        </is>
+      </c>
+      <c r="J23" s="39" t="n">
+        <v>47049</v>
+      </c>
+      <c r="K23" s="40" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="L23" s="40" t="n">
+        <v>34791</v>
+      </c>
+      <c r="M23" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N23" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P23" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="R23" s="12" t="n">
+        <v>34791</v>
+      </c>
+      <c r="S23" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="37" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="F24" s="38" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H24" s="38" t="n">
+        <v>116609</v>
+      </c>
+      <c r="I24" s="39" t="inlineStr">
+        <is>
+          <t>59.9%</t>
+        </is>
+      </c>
+      <c r="J24" s="39" t="n">
+        <v>69845</v>
+      </c>
+      <c r="K24" s="40" t="inlineStr">
+        <is>
+          <t>34.2%</t>
+        </is>
+      </c>
+      <c r="L24" s="40" t="n">
+        <v>39868</v>
+      </c>
+      <c r="M24" s="41" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="N24" s="41" t="n">
+        <v>6368</v>
+      </c>
+      <c r="O24" s="42" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="P24" s="42" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q24" s="12" t="inlineStr">
+        <is>
+          <t>40.1%</t>
+        </is>
+      </c>
+      <c r="R24" s="12" t="n">
+        <v>46765</v>
+      </c>
+      <c r="S24" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="37" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F25" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H25" s="38" t="n">
+        <v>103387</v>
+      </c>
+      <c r="I25" s="39" t="inlineStr">
+        <is>
+          <t>11.3%</t>
+        </is>
+      </c>
+      <c r="J25" s="39" t="n">
+        <v>11652</v>
+      </c>
+      <c r="K25" s="40" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="L25" s="40" t="n">
+        <v>56024</v>
+      </c>
+      <c r="M25" s="41" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="N25" s="41" t="n">
+        <v>35711</v>
+      </c>
+      <c r="O25" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P25" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12" t="inlineStr">
+        <is>
+          <t>88.7%</t>
+        </is>
+      </c>
+      <c r="R25" s="12" t="n">
+        <v>91735</v>
+      </c>
+      <c r="S25" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="37" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="F26" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H26" s="38" t="n">
+        <v>70760</v>
+      </c>
+      <c r="I26" s="39" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="J26" s="39" t="n">
+        <v>16422</v>
+      </c>
+      <c r="K26" s="40" t="inlineStr">
+        <is>
+          <t>75.4%</t>
+        </is>
+      </c>
+      <c r="L26" s="40" t="n">
+        <v>53346</v>
+      </c>
+      <c r="M26" s="41" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="N26" s="41" t="n">
+        <v>483</v>
+      </c>
+      <c r="O26" s="42" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="P26" s="42" t="n">
+        <v>509</v>
+      </c>
+      <c r="Q26" s="12" t="inlineStr">
+        <is>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="R26" s="12" t="n">
+        <v>54338</v>
+      </c>
+      <c r="S26" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="37" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F27" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H27" s="38" t="n">
+        <v>114132</v>
+      </c>
+      <c r="I27" s="39" t="inlineStr">
+        <is>
+          <t>49.9%</t>
+        </is>
+      </c>
+      <c r="J27" s="39" t="n">
+        <v>56982</v>
+      </c>
+      <c r="K27" s="40" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="L27" s="40" t="n">
+        <v>57150</v>
+      </c>
+      <c r="M27" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N27" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P27" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="R27" s="12" t="n">
+        <v>57150</v>
+      </c>
+      <c r="S27" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="37" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F28" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="G28" s="38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H28" s="38" t="n">
+        <v>284225</v>
+      </c>
+      <c r="I28" s="39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J28" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L28" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="41" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="N28" s="41" t="n">
+        <v>284225</v>
+      </c>
+      <c r="O28" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P28" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R28" s="12" t="n">
+        <v>284225</v>
+      </c>
+      <c r="S28" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="43" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="F29" s="44" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="44" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="H29" s="44" t="n">
+        <v>98820</v>
+      </c>
+      <c r="I29" s="45" t="inlineStr">
+        <is>
+          <t>47.3%</t>
+        </is>
+      </c>
+      <c r="J29" s="45" t="n">
+        <v>46777</v>
+      </c>
+      <c r="K29" s="46" t="inlineStr">
+        <is>
+          <t>47.8%</t>
+        </is>
+      </c>
+      <c r="L29" s="46" t="n">
+        <v>47266</v>
+      </c>
+      <c r="M29" s="47" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N29" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="48" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="P29" s="48" t="n">
+        <v>4777</v>
+      </c>
+      <c r="Q29" s="49" t="inlineStr">
+        <is>
+          <t>52.7%</t>
+        </is>
+      </c>
+      <c r="R29" s="49" t="n">
+        <v>52044</v>
+      </c>
+      <c r="S29" s="13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1607,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,11 +3177,11 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="16" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
@@ -1649,7 +3204,7 @@
       <c r="D5" s="30" t="n"/>
       <c r="E5" s="31" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="31" t="inlineStr">
@@ -1730,61 +3285,463 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="37" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="38" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>34729</v>
+      </c>
+      <c r="I6" s="39" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>4335</v>
+      </c>
+      <c r="K6" s="40" t="inlineStr">
+        <is>
+          <t>64.3%</t>
+        </is>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>22341</v>
+      </c>
+      <c r="M6" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N6" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="42" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="P6" s="42" t="n">
+        <v>8052</v>
+      </c>
+      <c r="Q6" s="12" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>30393</v>
+      </c>
+      <c r="S6" s="13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="38" t="n">
+        <v>16532</v>
+      </c>
+      <c r="I7" s="39" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>6022</v>
+      </c>
+      <c r="K7" s="40" t="inlineStr">
+        <is>
+          <t>55.3%</t>
+        </is>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>9149</v>
+      </c>
+      <c r="M7" s="41" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
+      <c r="N7" s="41" t="n">
+        <v>1361</v>
+      </c>
+      <c r="O7" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>10510</v>
+      </c>
+      <c r="S7" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F8" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="38" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H8" s="38" t="n">
         <v>13395</v>
       </c>
-      <c r="I6" s="39" t="inlineStr">
-        <is>
-          <t>15.3%</t>
-        </is>
-      </c>
-      <c r="J6" s="39" t="n">
-        <v>2046</v>
-      </c>
-      <c r="K6" s="40" t="inlineStr">
-        <is>
-          <t>74.0%</t>
-        </is>
-      </c>
-      <c r="L6" s="40" t="n">
-        <v>9910</v>
-      </c>
-      <c r="M6" s="41" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="N6" s="41" t="n">
-        <v>1270</v>
-      </c>
-      <c r="O6" s="42" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="P6" s="42" t="n">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="43" t="inlineStr">
-        <is>
-          <t>84.7%</t>
-        </is>
-      </c>
-      <c r="R6" s="43" t="n">
-        <v>11349</v>
-      </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
+        <is>
+          <t>14.2%</t>
+        </is>
+      </c>
+      <c r="J8" s="39" t="n">
+        <v>1903</v>
+      </c>
+      <c r="K8" s="40" t="inlineStr">
+        <is>
+          <t>75.7%</t>
+        </is>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>10143</v>
+      </c>
+      <c r="M8" s="41" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
+      <c r="N8" s="41" t="n">
+        <v>1198</v>
+      </c>
+      <c r="O8" s="42" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="P8" s="42" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="12" t="inlineStr">
+        <is>
+          <t>85.8%</t>
+        </is>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>11491</v>
+      </c>
+      <c r="S8" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="38" t="n">
+        <v>24796</v>
+      </c>
+      <c r="I9" s="39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40" t="inlineStr">
+        <is>
+          <t>75.4%</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n">
+        <v>18691</v>
+      </c>
+      <c r="M9" s="41" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="N9" s="41" t="n">
+        <v>6106</v>
+      </c>
+      <c r="O9" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P9" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>24796</v>
+      </c>
+      <c r="S9" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F10" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="38" t="n">
+        <v>11337</v>
+      </c>
+      <c r="I10" s="39" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="J10" s="39" t="n">
+        <v>3123</v>
+      </c>
+      <c r="K10" s="40" t="inlineStr">
+        <is>
+          <t>67.0%</t>
+        </is>
+      </c>
+      <c r="L10" s="40" t="n">
+        <v>7593</v>
+      </c>
+      <c r="M10" s="41" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="N10" s="41" t="n">
+        <v>621</v>
+      </c>
+      <c r="O10" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P10" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12" t="inlineStr">
+        <is>
+          <t>72.5%</t>
+        </is>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>8213</v>
+      </c>
+      <c r="S10" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F11" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="38" t="n">
+        <v>12182</v>
+      </c>
+      <c r="I11" s="39" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="J11" s="39" t="n">
+        <v>2415</v>
+      </c>
+      <c r="K11" s="40" t="inlineStr">
+        <is>
+          <t>68.9%</t>
+        </is>
+      </c>
+      <c r="L11" s="40" t="n">
+        <v>8390</v>
+      </c>
+      <c r="M11" s="41" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="N11" s="41" t="n">
+        <v>880</v>
+      </c>
+      <c r="O11" s="42" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="P11" s="42" t="n">
+        <v>498</v>
+      </c>
+      <c r="Q11" s="12" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>9767</v>
+      </c>
+      <c r="S11" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="43" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F12" s="44" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" s="44" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="44" t="n">
+        <v>40604</v>
+      </c>
+      <c r="I12" s="45" t="inlineStr">
+        <is>
+          <t>61.2%</t>
+        </is>
+      </c>
+      <c r="J12" s="45" t="n">
+        <v>24837</v>
+      </c>
+      <c r="K12" s="46" t="inlineStr">
+        <is>
+          <t>19.2%</t>
+        </is>
+      </c>
+      <c r="L12" s="46" t="n">
+        <v>7809</v>
+      </c>
+      <c r="M12" s="47" t="inlineStr">
+        <is>
+          <t>19.6%</t>
+        </is>
+      </c>
+      <c r="N12" s="47" t="n">
+        <v>7958</v>
+      </c>
+      <c r="O12" s="48" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P12" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="49" t="inlineStr">
+        <is>
+          <t>38.8%</t>
+        </is>
+      </c>
+      <c r="R12" s="49" t="n">
+        <v>15767</v>
+      </c>
+      <c r="S12" s="13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1804,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,15 +3772,15 @@
     <col width="36" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="16" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
@@ -1846,7 +3803,7 @@
       <c r="D5" s="30" t="n"/>
       <c r="E5" s="31" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="F5" s="31" t="inlineStr">
@@ -1927,63 +3884,1135 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="37" t="inlineStr">
         <is>
+          <t>afgooye</t>
+        </is>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>69457</v>
+      </c>
+      <c r="I6" s="39" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>3921</v>
+      </c>
+      <c r="K6" s="40" t="inlineStr">
+        <is>
+          <t>87.8%</t>
+        </is>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>60999</v>
+      </c>
+      <c r="M6" s="41" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="N6" s="41" t="n">
+        <v>2032</v>
+      </c>
+      <c r="O6" s="42" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="P6" s="42" t="n">
+        <v>2505</v>
+      </c>
+      <c r="Q6" s="12" t="inlineStr">
+        <is>
+          <t>94.4%</t>
+        </is>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="S6" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="F7" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H7" s="38" t="n">
+        <v>33064</v>
+      </c>
+      <c r="I7" s="39" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>6558</v>
+      </c>
+      <c r="K7" s="40" t="inlineStr">
+        <is>
+          <t>77.3%</t>
+        </is>
+      </c>
+      <c r="L7" s="40" t="n">
+        <v>25551</v>
+      </c>
+      <c r="M7" s="41" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="N7" s="41" t="n">
+        <v>955</v>
+      </c>
+      <c r="O7" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12" t="inlineStr">
+        <is>
+          <t>80.2%</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>26506</v>
+      </c>
+      <c r="S7" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F8" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="38" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H8" s="38" t="n">
         <v>26789</v>
       </c>
-      <c r="I6" s="39" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>16.5%</t>
         </is>
       </c>
-      <c r="J6" s="39" t="n">
-        <v>4419</v>
-      </c>
-      <c r="K6" s="40" t="inlineStr">
-        <is>
-          <t>75.0%</t>
-        </is>
-      </c>
-      <c r="L6" s="40" t="n">
-        <v>20092</v>
-      </c>
-      <c r="M6" s="41" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="N6" s="41" t="n">
-        <v>2122</v>
-      </c>
-      <c r="O6" s="42" t="inlineStr">
+      <c r="J8" s="39" t="n">
+        <v>4417</v>
+      </c>
+      <c r="K8" s="40" t="inlineStr">
+        <is>
+          <t>75.8%</t>
+        </is>
+      </c>
+      <c r="L8" s="40" t="n">
+        <v>20308</v>
+      </c>
+      <c r="M8" s="41" t="inlineStr">
+        <is>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="N8" s="41" t="n">
+        <v>1896</v>
+      </c>
+      <c r="O8" s="42" t="inlineStr">
         <is>
           <t>0.6%</t>
         </is>
       </c>
-      <c r="P6" s="42" t="n">
-        <v>157</v>
-      </c>
-      <c r="Q6" s="43" t="inlineStr">
+      <c r="P8" s="42" t="n">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="12" t="inlineStr">
         <is>
           <t>83.5%</t>
         </is>
       </c>
-      <c r="R6" s="43" t="n">
-        <v>22371</v>
-      </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="R8" s="12" t="n">
+        <v>22373</v>
+      </c>
+      <c r="S8" s="13" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H9" s="38" t="n">
+        <v>49592</v>
+      </c>
+      <c r="I9" s="39" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="J9" s="39" t="n">
+        <v>25835</v>
+      </c>
+      <c r="K9" s="40" t="inlineStr">
+        <is>
+          <t>34.3%</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n">
+        <v>17003</v>
+      </c>
+      <c r="M9" s="41" t="inlineStr">
+        <is>
+          <t>13.6%</t>
+        </is>
+      </c>
+      <c r="N9" s="41" t="n">
+        <v>6754</v>
+      </c>
+      <c r="O9" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P9" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="inlineStr">
+        <is>
+          <t>47.9%</t>
+        </is>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>23757</v>
+      </c>
+      <c r="S9" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>baydhaba</t>
+        </is>
+      </c>
+      <c r="F10" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H10" s="38" t="n">
+        <v>68576</v>
+      </c>
+      <c r="I10" s="39" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="J10" s="39" t="n">
+        <v>22518</v>
+      </c>
+      <c r="K10" s="40" t="inlineStr">
+        <is>
+          <t>49.4%</t>
+        </is>
+      </c>
+      <c r="L10" s="40" t="n">
+        <v>33899</v>
+      </c>
+      <c r="M10" s="41" t="inlineStr">
+        <is>
+          <t>14.1%</t>
+        </is>
+      </c>
+      <c r="N10" s="41" t="n">
+        <v>9673</v>
+      </c>
+      <c r="O10" s="42" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="P10" s="42" t="n">
+        <v>2485</v>
+      </c>
+      <c r="Q10" s="12" t="inlineStr">
+        <is>
+          <t>67.2%</t>
+        </is>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>46057</v>
+      </c>
+      <c r="S10" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="F11" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H11" s="38" t="n">
+        <v>26871</v>
+      </c>
+      <c r="I11" s="39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J11" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="40" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="L11" s="40" t="n">
+        <v>26871</v>
+      </c>
+      <c r="M11" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N11" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P11" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>26871</v>
+      </c>
+      <c r="S11" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="F12" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H12" s="38" t="n">
+        <v>20314</v>
+      </c>
+      <c r="I12" s="39" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="J12" s="39" t="n">
+        <v>4383</v>
+      </c>
+      <c r="K12" s="40" t="inlineStr">
+        <is>
+          <t>54.7%</t>
+        </is>
+      </c>
+      <c r="L12" s="40" t="n">
+        <v>11112</v>
+      </c>
+      <c r="M12" s="41" t="inlineStr">
+        <is>
+          <t>23.2%</t>
+        </is>
+      </c>
+      <c r="N12" s="41" t="n">
+        <v>4703</v>
+      </c>
+      <c r="O12" s="42" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="P12" s="42" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="12" t="inlineStr">
+        <is>
+          <t>78.4%</t>
+        </is>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>15931</v>
+      </c>
+      <c r="S12" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="37" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="F13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H13" s="38" t="n">
+        <v>59068</v>
+      </c>
+      <c r="I13" s="39" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="J13" s="39" t="n">
+        <v>20352</v>
+      </c>
+      <c r="K13" s="40" t="inlineStr">
+        <is>
+          <t>33.8%</t>
+        </is>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>19987</v>
+      </c>
+      <c r="M13" s="41" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="N13" s="41" t="n">
+        <v>18141</v>
+      </c>
+      <c r="O13" s="42" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="P13" s="42" t="n">
+        <v>587</v>
+      </c>
+      <c r="Q13" s="12" t="inlineStr">
+        <is>
+          <t>65.5%</t>
+        </is>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>38715</v>
+      </c>
+      <c r="S13" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="37" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H14" s="38" t="n">
+        <v>22673</v>
+      </c>
+      <c r="I14" s="39" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="J14" s="39" t="n">
+        <v>9855</v>
+      </c>
+      <c r="K14" s="40" t="inlineStr">
+        <is>
+          <t>56.1%</t>
+        </is>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>12728</v>
+      </c>
+      <c r="M14" s="41" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="N14" s="41" t="n">
+        <v>91</v>
+      </c>
+      <c r="O14" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P14" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12" t="inlineStr">
+        <is>
+          <t>56.5%</t>
+        </is>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>12819</v>
+      </c>
+      <c r="S14" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="F15" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H15" s="38" t="n">
+        <v>26893</v>
+      </c>
+      <c r="I15" s="39" t="inlineStr">
+        <is>
+          <t>50.7%</t>
+        </is>
+      </c>
+      <c r="J15" s="39" t="n">
+        <v>13640</v>
+      </c>
+      <c r="K15" s="40" t="inlineStr">
+        <is>
+          <t>46.4%</t>
+        </is>
+      </c>
+      <c r="L15" s="40" t="n">
+        <v>12484</v>
+      </c>
+      <c r="M15" s="41" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="N15" s="41" t="n">
+        <v>658</v>
+      </c>
+      <c r="O15" s="42" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="P15" s="42" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="12" t="inlineStr">
+        <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>13254</v>
+      </c>
+      <c r="S15" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="37" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="F16" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H16" s="38" t="n">
+        <v>23537</v>
+      </c>
+      <c r="I16" s="39" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="J16" s="39" t="n">
+        <v>1268</v>
+      </c>
+      <c r="K16" s="40" t="inlineStr">
+        <is>
+          <t>88.9%</t>
+        </is>
+      </c>
+      <c r="L16" s="40" t="n">
+        <v>20927</v>
+      </c>
+      <c r="M16" s="41" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="N16" s="41" t="n">
+        <v>857</v>
+      </c>
+      <c r="O16" s="42" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="P16" s="42" t="n">
+        <v>485</v>
+      </c>
+      <c r="Q16" s="12" t="inlineStr">
+        <is>
+          <t>94.6%</t>
+        </is>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>22269</v>
+      </c>
+      <c r="S16" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="37" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="F17" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H17" s="38" t="n">
+        <v>134175</v>
+      </c>
+      <c r="I17" s="39" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+      <c r="J17" s="39" t="n">
+        <v>99350</v>
+      </c>
+      <c r="K17" s="40" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="L17" s="40" t="n">
+        <v>34825</v>
+      </c>
+      <c r="M17" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N17" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P17" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>34825</v>
+      </c>
+      <c r="S17" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="37" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="F18" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H18" s="38" t="n">
+        <v>24364</v>
+      </c>
+      <c r="I18" s="39" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="J18" s="39" t="n">
+        <v>12811</v>
+      </c>
+      <c r="K18" s="40" t="inlineStr">
+        <is>
+          <t>33.5%</t>
+        </is>
+      </c>
+      <c r="L18" s="40" t="n">
+        <v>8163</v>
+      </c>
+      <c r="M18" s="41" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="N18" s="41" t="n">
+        <v>2891</v>
+      </c>
+      <c r="O18" s="42" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="P18" s="42" t="n">
+        <v>499</v>
+      </c>
+      <c r="Q18" s="12" t="inlineStr">
+        <is>
+          <t>47.4%</t>
+        </is>
+      </c>
+      <c r="R18" s="12" t="n">
+        <v>11553</v>
+      </c>
+      <c r="S18" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="37" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="F19" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H19" s="38" t="n">
+        <v>23383</v>
+      </c>
+      <c r="I19" s="39" t="inlineStr">
+        <is>
+          <t>6.9%</t>
+        </is>
+      </c>
+      <c r="J19" s="39" t="n">
+        <v>1619</v>
+      </c>
+      <c r="K19" s="40" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="L19" s="40" t="n">
+        <v>21764</v>
+      </c>
+      <c r="M19" s="41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N19" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P19" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12" t="inlineStr">
+        <is>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>21764</v>
+      </c>
+      <c r="S19" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="37" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="F20" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H20" s="38" t="n">
+        <v>29539</v>
+      </c>
+      <c r="I20" s="39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J20" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="40" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="L20" s="40" t="n">
+        <v>6170</v>
+      </c>
+      <c r="M20" s="41" t="inlineStr">
+        <is>
+          <t>73.9%</t>
+        </is>
+      </c>
+      <c r="N20" s="41" t="n">
+        <v>21826</v>
+      </c>
+      <c r="O20" s="42" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="P20" s="42" t="n">
+        <v>1543</v>
+      </c>
+      <c r="Q20" s="12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R20" s="12" t="n">
+        <v>29539</v>
+      </c>
+      <c r="S20" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="37" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="F21" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H21" s="38" t="n">
+        <v>32609</v>
+      </c>
+      <c r="I21" s="39" t="inlineStr">
+        <is>
+          <t>61.6%</t>
+        </is>
+      </c>
+      <c r="J21" s="39" t="n">
+        <v>20097</v>
+      </c>
+      <c r="K21" s="40" t="inlineStr">
+        <is>
+          <t>36.7%</t>
+        </is>
+      </c>
+      <c r="L21" s="40" t="n">
+        <v>11952</v>
+      </c>
+      <c r="M21" s="41" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="N21" s="41" t="n">
+        <v>561</v>
+      </c>
+      <c r="O21" s="42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P21" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>12512</v>
+      </c>
+      <c r="S21" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="43" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="F22" s="44" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="44" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="H22" s="44" t="n">
+        <v>81207</v>
+      </c>
+      <c r="I22" s="45" t="inlineStr">
+        <is>
+          <t>56.7%</t>
+        </is>
+      </c>
+      <c r="J22" s="45" t="n">
+        <v>46014</v>
+      </c>
+      <c r="K22" s="46" t="inlineStr">
+        <is>
+          <t>13.8%</t>
+        </is>
+      </c>
+      <c r="L22" s="46" t="n">
+        <v>11227</v>
+      </c>
+      <c r="M22" s="47" t="inlineStr">
+        <is>
+          <t>24.4%</t>
+        </is>
+      </c>
+      <c r="N22" s="47" t="n">
+        <v>19775</v>
+      </c>
+      <c r="O22" s="48" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="P22" s="48" t="n">
+        <v>4191</v>
+      </c>
+      <c r="Q22" s="49" t="inlineStr">
+        <is>
+          <t>43.3%</t>
+        </is>
+      </c>
+      <c r="R22" s="49" t="n">
+        <v>35193</v>
+      </c>
+      <c r="S22" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/output/PiN_overview_OCHA_Somalia___SOM.xlsx
+++ b/output/PiN_overview_OCHA_Somalia___SOM.xlsx
@@ -781,43 +781,43 @@
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I6" s="8" t="n">
-        <v>1528061</v>
+        <v>1533606</v>
       </c>
       <c r="J6" s="8" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.1%</t>
         </is>
       </c>
       <c r="K6" s="8" t="n">
-        <v>1871198</v>
+        <v>1893678</v>
       </c>
       <c r="L6" s="8" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="M6" s="8" t="n">
-        <v>558853</v>
+        <v>545324</v>
       </c>
       <c r="N6" s="8" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O6" s="8" t="n">
-        <v>150589</v>
+        <v>136094</v>
       </c>
       <c r="P6" s="8" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>2580640</v>
+        <v>2575095</v>
       </c>
     </row>
     <row r="7">
@@ -840,43 +840,43 @@
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I7" s="11" t="n">
-        <v>1192786</v>
+        <v>1199788</v>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>44.7%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="K7" s="11" t="n">
-        <v>1431114</v>
+        <v>1456751</v>
       </c>
       <c r="L7" s="11" t="inlineStr">
         <is>
-          <t>14.0%</t>
+          <t>13.5%</t>
         </is>
       </c>
       <c r="M7" s="11" t="n">
-        <v>449916</v>
+        <v>431415</v>
       </c>
       <c r="N7" s="11" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="O7" s="11" t="n">
-        <v>129197</v>
+        <v>115059</v>
       </c>
       <c r="P7" s="12" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="Q7" s="13" t="n">
-        <v>2010226</v>
+        <v>2003224</v>
       </c>
     </row>
     <row r="8">
@@ -899,43 +899,43 @@
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>26.3%</t>
         </is>
       </c>
       <c r="I8" s="11" t="n">
-        <v>42636</v>
+        <v>40407</v>
       </c>
       <c r="J8" s="11" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>56.2%</t>
         </is>
       </c>
       <c r="K8" s="11" t="n">
-        <v>84115</v>
+        <v>86255</v>
       </c>
       <c r="L8" s="11" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>11.6%</t>
         </is>
       </c>
       <c r="M8" s="11" t="n">
-        <v>18123</v>
+        <v>17870</v>
       </c>
       <c r="N8" s="11" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="O8" s="11" t="n">
-        <v>8701</v>
+        <v>9042</v>
       </c>
       <c r="P8" s="12" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>73.7%</t>
         </is>
       </c>
       <c r="Q8" s="13" t="n">
-        <v>110938</v>
+        <v>113167</v>
       </c>
     </row>
     <row r="9">
@@ -958,43 +958,43 @@
       </c>
       <c r="H9" s="11" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="I9" s="11" t="n">
-        <v>292639</v>
+        <v>293410</v>
       </c>
       <c r="J9" s="11" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>46.6%</t>
         </is>
       </c>
       <c r="K9" s="11" t="n">
-        <v>355970</v>
+        <v>350672</v>
       </c>
       <c r="L9" s="11" t="inlineStr">
         <is>
-          <t>12.1%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="M9" s="11" t="n">
-        <v>90814</v>
+        <v>96039</v>
       </c>
       <c r="N9" s="11" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="O9" s="11" t="n">
-        <v>12692</v>
+        <v>11993</v>
       </c>
       <c r="P9" s="12" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>61.0%</t>
         </is>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>459476</v>
+        <v>458704</v>
       </c>
     </row>
     <row r="10">
@@ -1017,43 +1017,43 @@
       </c>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>36.6%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="I10" s="15" t="n">
-        <v>691975</v>
+        <v>693858</v>
       </c>
       <c r="J10" s="15" t="inlineStr">
         <is>
-          <t>45.2%</t>
+          <t>45.7%</t>
         </is>
       </c>
       <c r="K10" s="15" t="n">
-        <v>855606</v>
+        <v>865542</v>
       </c>
       <c r="L10" s="15" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="M10" s="15" t="n">
-        <v>268237</v>
+        <v>263813</v>
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="O10" s="15" t="n">
-        <v>77104</v>
+        <v>69709</v>
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>63.4%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="Q10" s="17" t="n">
-        <v>1200947</v>
+        <v>1199063</v>
       </c>
     </row>
     <row r="11">
@@ -1076,43 +1076,43 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>37.9%</t>
         </is>
       </c>
       <c r="I11" s="15" t="n">
-        <v>836086</v>
+        <v>839748</v>
       </c>
       <c r="J11" s="15" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>46.4%</t>
         </is>
       </c>
       <c r="K11" s="15" t="n">
-        <v>1015593</v>
+        <v>1028137</v>
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>13.1%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="M11" s="15" t="n">
-        <v>290616</v>
+        <v>281511</v>
       </c>
       <c r="N11" s="15" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="O11" s="15" t="n">
-        <v>73485</v>
+        <v>66384</v>
       </c>
       <c r="P11" s="16" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="Q11" s="17" t="n">
-        <v>1379694</v>
+        <v>1376032</v>
       </c>
     </row>
     <row r="12">
@@ -1135,43 +1135,43 @@
       </c>
       <c r="H12" s="19" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I12" s="19" t="n">
-        <v>323134</v>
+        <v>321447</v>
       </c>
       <c r="J12" s="19" t="inlineStr">
         <is>
-          <t>44.5%</t>
+          <t>45.2%</t>
         </is>
       </c>
       <c r="K12" s="19" t="n">
-        <v>339122</v>
+        <v>344682</v>
       </c>
       <c r="L12" s="19" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="M12" s="19" t="n">
-        <v>76149</v>
+        <v>74691</v>
       </c>
       <c r="N12" s="19" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="O12" s="19" t="n">
-        <v>24131</v>
+        <v>21715</v>
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>57.6%</t>
+          <t>57.8%</t>
         </is>
       </c>
       <c r="Q12" s="21" t="n">
-        <v>439401</v>
+        <v>441088</v>
       </c>
     </row>
     <row r="13">
@@ -1194,43 +1194,43 @@
       </c>
       <c r="H13" s="23" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I13" s="23" t="n">
-        <v>509354</v>
+        <v>511202</v>
       </c>
       <c r="J13" s="23" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.1%</t>
         </is>
       </c>
       <c r="K13" s="23" t="n">
-        <v>623733</v>
+        <v>631226</v>
       </c>
       <c r="L13" s="23" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="M13" s="23" t="n">
-        <v>186284</v>
+        <v>181775</v>
       </c>
       <c r="N13" s="23" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O13" s="23" t="n">
-        <v>50196</v>
+        <v>45365</v>
       </c>
       <c r="P13" s="24" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="Q13" s="25" t="n">
-        <v>860213</v>
+        <v>858365</v>
       </c>
     </row>
     <row r="14">
@@ -1253,43 +1253,43 @@
       </c>
       <c r="H14" s="23" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I14" s="23" t="n">
-        <v>636692</v>
+        <v>639002</v>
       </c>
       <c r="J14" s="23" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.1%</t>
         </is>
       </c>
       <c r="K14" s="23" t="n">
-        <v>779666</v>
+        <v>789033</v>
       </c>
       <c r="L14" s="23" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="M14" s="23" t="n">
-        <v>232856</v>
+        <v>227218</v>
       </c>
       <c r="N14" s="23" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O14" s="23" t="n">
-        <v>62745</v>
+        <v>56706</v>
       </c>
       <c r="P14" s="24" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="Q14" s="25" t="n">
-        <v>1075267</v>
+        <v>1072956</v>
       </c>
     </row>
     <row r="15">
@@ -1312,43 +1312,43 @@
       </c>
       <c r="H15" s="23" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I15" s="23" t="n">
-        <v>382015</v>
+        <v>383401</v>
       </c>
       <c r="J15" s="23" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.1%</t>
         </is>
       </c>
       <c r="K15" s="23" t="n">
-        <v>467800</v>
+        <v>473420</v>
       </c>
       <c r="L15" s="23" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="M15" s="23" t="n">
-        <v>139713</v>
+        <v>136331</v>
       </c>
       <c r="N15" s="23" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O15" s="23" t="n">
-        <v>37647</v>
+        <v>34023</v>
       </c>
       <c r="P15" s="24" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="Q15" s="25" t="n">
-        <v>645160</v>
+        <v>643774</v>
       </c>
     </row>
     <row r="16">
@@ -1371,43 +1371,43 @@
       </c>
       <c r="H16" s="27" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I16" s="27" t="n">
-        <v>152806</v>
+        <v>153361</v>
       </c>
       <c r="J16" s="27" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>46.1%</t>
         </is>
       </c>
       <c r="K16" s="27" t="n">
-        <v>187120</v>
+        <v>189368</v>
       </c>
       <c r="L16" s="27" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="M16" s="27" t="n">
-        <v>55885</v>
+        <v>54532</v>
       </c>
       <c r="N16" s="27" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="O16" s="27" t="n">
-        <v>15059</v>
+        <v>13609</v>
       </c>
       <c r="P16" s="28" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="Q16" s="29" t="n">
-        <v>258064</v>
+        <v>257510</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1443,7 @@
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="16" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
@@ -1563,19 +1563,19 @@
       </c>
       <c r="I6" s="39" t="inlineStr">
         <is>
-          <t>36.1%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="J6" s="39" t="n">
-        <v>87688</v>
+        <v>89268</v>
       </c>
       <c r="K6" s="40" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="L6" s="40" t="n">
-        <v>53665</v>
+        <v>63430</v>
       </c>
       <c r="M6" s="41" t="inlineStr">
         <is>
@@ -1587,19 +1587,19 @@
       </c>
       <c r="O6" s="42" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="P6" s="42" t="n">
-        <v>101746</v>
+        <v>90402</v>
       </c>
       <c r="Q6" s="12" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="R6" s="12" t="n">
-        <v>155412</v>
+        <v>153832</v>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
@@ -1630,19 +1630,19 @@
       </c>
       <c r="I7" s="39" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="J7" s="39" t="n">
-        <v>40061</v>
+        <v>37643</v>
       </c>
       <c r="K7" s="40" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>68701</v>
+        <v>71847</v>
       </c>
       <c r="M7" s="41" t="inlineStr">
         <is>
@@ -1654,19 +1654,19 @@
       </c>
       <c r="O7" s="42" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="P7" s="42" t="n">
-        <v>6964</v>
+        <v>6236</v>
       </c>
       <c r="Q7" s="12" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="R7" s="12" t="n">
-        <v>75665</v>
+        <v>78083</v>
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
@@ -1697,27 +1697,27 @@
       </c>
       <c r="I8" s="39" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="J8" s="39" t="n">
-        <v>33929</v>
+        <v>38306</v>
       </c>
       <c r="K8" s="40" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="L8" s="40" t="n">
-        <v>45945</v>
+        <v>43580</v>
       </c>
       <c r="M8" s="41" t="inlineStr">
         <is>
-          <t>14.8%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="N8" s="41" t="n">
-        <v>13889</v>
+        <v>11877</v>
       </c>
       <c r="O8" s="42" t="inlineStr">
         <is>
@@ -1729,11 +1729,11 @@
       </c>
       <c r="Q8" s="12" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="R8" s="12" t="n">
-        <v>59834</v>
+        <v>55457</v>
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
@@ -1764,27 +1764,27 @@
       </c>
       <c r="I9" s="39" t="inlineStr">
         <is>
+          <t>14.0%</t>
+        </is>
+      </c>
+      <c r="J9" s="39" t="n">
+        <v>24308</v>
+      </c>
+      <c r="K9" s="40" t="inlineStr">
+        <is>
+          <t>71.7%</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n">
+        <v>124424</v>
+      </c>
+      <c r="M9" s="41" t="inlineStr">
+        <is>
           <t>14.3%</t>
         </is>
       </c>
-      <c r="J9" s="39" t="n">
-        <v>24824</v>
-      </c>
-      <c r="K9" s="40" t="inlineStr">
-        <is>
-          <t>67.2%</t>
-        </is>
-      </c>
-      <c r="L9" s="40" t="n">
-        <v>116696</v>
-      </c>
-      <c r="M9" s="41" t="inlineStr">
-        <is>
-          <t>18.5%</t>
-        </is>
-      </c>
       <c r="N9" s="41" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="O9" s="42" t="inlineStr">
         <is>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="Q9" s="12" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="R9" s="12" t="n">
-        <v>148750</v>
+        <v>149265</v>
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="J10" s="39" t="n">
-        <v>164063</v>
+        <v>164204</v>
       </c>
       <c r="K10" s="40" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>24.8%</t>
         </is>
       </c>
       <c r="L10" s="40" t="n">
-        <v>55360</v>
+        <v>59491</v>
       </c>
       <c r="M10" s="41" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="N10" s="41" t="n">
-        <v>16942</v>
+        <v>13364</v>
       </c>
       <c r="O10" s="42" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="P10" s="42" t="n">
-        <v>3649</v>
+        <v>2956</v>
       </c>
       <c r="Q10" s="12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="R10" s="12" t="n">
-        <v>75951</v>
+        <v>75810</v>
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
@@ -1898,27 +1898,27 @@
       </c>
       <c r="I11" s="39" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="J11" s="39" t="n">
-        <v>52247</v>
+        <v>49735</v>
       </c>
       <c r="K11" s="40" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="L11" s="40" t="n">
-        <v>26059</v>
+        <v>29181</v>
       </c>
       <c r="M11" s="41" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="N11" s="41" t="n">
-        <v>3547</v>
+        <v>2937</v>
       </c>
       <c r="O11" s="42" t="inlineStr">
         <is>
@@ -1930,11 +1930,11 @@
       </c>
       <c r="Q11" s="12" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="R11" s="12" t="n">
-        <v>29606</v>
+        <v>32117</v>
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
@@ -1965,27 +1965,27 @@
       </c>
       <c r="I12" s="39" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="J12" s="39" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="K12" s="40" t="inlineStr">
         <is>
-          <t>92.6%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="L12" s="40" t="n">
-        <v>87132</v>
+        <v>88022</v>
       </c>
       <c r="M12" s="41" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="N12" s="41" t="n">
-        <v>4138</v>
+        <v>3910</v>
       </c>
       <c r="O12" s="42" t="inlineStr">
         <is>
@@ -1997,11 +1997,11 @@
       </c>
       <c r="Q12" s="12" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="R12" s="12" t="n">
-        <v>91270</v>
+        <v>91932</v>
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
@@ -2032,43 +2032,43 @@
       </c>
       <c r="I13" s="39" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>31.2%</t>
         </is>
       </c>
       <c r="J13" s="39" t="n">
-        <v>23037</v>
+        <v>22197</v>
       </c>
       <c r="K13" s="40" t="inlineStr">
         <is>
-          <t>61.0%</t>
+          <t>60.7%</t>
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>43373</v>
+        <v>43161</v>
       </c>
       <c r="M13" s="41" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N13" s="41" t="n">
-        <v>2781</v>
+        <v>3621</v>
       </c>
       <c r="O13" s="42" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P13" s="42" t="n">
-        <v>1910</v>
+        <v>2121</v>
       </c>
       <c r="Q13" s="12" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="R13" s="12" t="n">
-        <v>48063</v>
+        <v>48903</v>
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
@@ -2099,43 +2099,43 @@
       </c>
       <c r="I14" s="39" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="J14" s="39" t="n">
-        <v>85825</v>
+        <v>84116</v>
       </c>
       <c r="K14" s="40" t="inlineStr">
         <is>
-          <t>43.6%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="L14" s="40" t="n">
-        <v>90208</v>
+        <v>89949</v>
       </c>
       <c r="M14" s="41" t="inlineStr">
         <is>
-          <t>12.1%</t>
+          <t>13.4%</t>
         </is>
       </c>
       <c r="N14" s="41" t="n">
-        <v>25061</v>
+        <v>27668</v>
       </c>
       <c r="O14" s="42" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="P14" s="42" t="n">
-        <v>5642</v>
+        <v>5004</v>
       </c>
       <c r="Q14" s="12" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="R14" s="12" t="n">
-        <v>120911</v>
+        <v>122621</v>
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
@@ -2166,43 +2166,43 @@
       </c>
       <c r="I15" s="39" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="J15" s="39" t="n">
-        <v>42247</v>
+        <v>44376</v>
       </c>
       <c r="K15" s="40" t="inlineStr">
         <is>
-          <t>43.4%</t>
+          <t>41.1%</t>
         </is>
       </c>
       <c r="L15" s="40" t="n">
-        <v>34418</v>
+        <v>32580</v>
       </c>
       <c r="M15" s="41" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N15" s="41" t="n">
-        <v>1564</v>
+        <v>1384</v>
       </c>
       <c r="O15" s="42" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="P15" s="42" t="n">
-        <v>1129</v>
+        <v>1017</v>
       </c>
       <c r="Q15" s="12" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="R15" s="12" t="n">
-        <v>37110</v>
+        <v>34981</v>
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
@@ -2233,27 +2233,27 @@
       </c>
       <c r="I16" s="39" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="J16" s="39" t="n">
-        <v>73884</v>
+        <v>73618</v>
       </c>
       <c r="K16" s="40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="L16" s="40" t="n">
-        <v>18837</v>
+        <v>19254</v>
       </c>
       <c r="M16" s="41" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="N16" s="41" t="n">
-        <v>1405</v>
+        <v>1256</v>
       </c>
       <c r="O16" s="42" t="inlineStr">
         <is>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="Q16" s="12" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="R16" s="12" t="n">
-        <v>20243</v>
+        <v>20509</v>
       </c>
       <c r="S16" s="13" t="inlineStr">
         <is>
@@ -2300,27 +2300,27 @@
       </c>
       <c r="I17" s="39" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="J17" s="39" t="n">
-        <v>5585</v>
+        <v>8343</v>
       </c>
       <c r="K17" s="40" t="inlineStr">
         <is>
-          <t>90.1%</t>
+          <t>86.8%</t>
         </is>
       </c>
       <c r="L17" s="40" t="n">
-        <v>74257</v>
+        <v>71542</v>
       </c>
       <c r="M17" s="41" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="N17" s="41" t="n">
-        <v>2538</v>
+        <v>2496</v>
       </c>
       <c r="O17" s="42" t="inlineStr">
         <is>
@@ -2332,11 +2332,11 @@
       </c>
       <c r="Q17" s="12" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="R17" s="12" t="n">
-        <v>76795</v>
+        <v>74037</v>
       </c>
       <c r="S17" s="13" t="inlineStr">
         <is>
@@ -2367,27 +2367,27 @@
       </c>
       <c r="I18" s="39" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="J18" s="39" t="n">
-        <v>48040</v>
+        <v>47947</v>
       </c>
       <c r="K18" s="40" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="L18" s="40" t="n">
-        <v>23948</v>
+        <v>24269</v>
       </c>
       <c r="M18" s="41" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="N18" s="41" t="n">
-        <v>3328</v>
+        <v>3100</v>
       </c>
       <c r="O18" s="42" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="Q18" s="12" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="R18" s="12" t="n">
-        <v>27276</v>
+        <v>27369</v>
       </c>
       <c r="S18" s="13" t="inlineStr">
         <is>
@@ -2434,27 +2434,27 @@
       </c>
       <c r="I19" s="39" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>39.9%</t>
         </is>
       </c>
       <c r="J19" s="39" t="n">
-        <v>18863</v>
+        <v>19666</v>
       </c>
       <c r="K19" s="40" t="inlineStr">
         <is>
-          <t>55.7%</t>
+          <t>54.9%</t>
         </is>
       </c>
       <c r="L19" s="40" t="n">
-        <v>27475</v>
+        <v>27078</v>
       </c>
       <c r="M19" s="41" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="N19" s="41" t="n">
-        <v>2946</v>
+        <v>2541</v>
       </c>
       <c r="O19" s="42" t="inlineStr">
         <is>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="Q19" s="12" t="inlineStr">
         <is>
-          <t>61.7%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="R19" s="12" t="n">
-        <v>30421</v>
+        <v>29619</v>
       </c>
       <c r="S19" s="13" t="inlineStr">
         <is>
@@ -2501,19 +2501,19 @@
       </c>
       <c r="I20" s="39" t="inlineStr">
         <is>
-          <t>39.7%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="J20" s="39" t="n">
-        <v>186481</v>
+        <v>180368</v>
       </c>
       <c r="K20" s="40" t="inlineStr">
         <is>
-          <t>58.6%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="L20" s="40" t="n">
-        <v>275229</v>
+        <v>281857</v>
       </c>
       <c r="M20" s="41" t="inlineStr">
         <is>
@@ -2521,23 +2521,23 @@
         </is>
       </c>
       <c r="N20" s="41" t="n">
-        <v>5560</v>
+        <v>5673</v>
       </c>
       <c r="O20" s="42" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="P20" s="42" t="n">
-        <v>2342</v>
+        <v>1715</v>
       </c>
       <c r="Q20" s="12" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>61.6%</t>
         </is>
       </c>
       <c r="R20" s="12" t="n">
-        <v>283132</v>
+        <v>289245</v>
       </c>
       <c r="S20" s="13" t="inlineStr">
         <is>
@@ -2568,27 +2568,27 @@
       </c>
       <c r="I21" s="39" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="J21" s="39" t="n">
-        <v>33009</v>
+        <v>30581</v>
       </c>
       <c r="K21" s="40" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="L21" s="40" t="n">
-        <v>39276</v>
+        <v>41304</v>
       </c>
       <c r="M21" s="41" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="N21" s="41" t="n">
-        <v>5685</v>
+        <v>6084</v>
       </c>
       <c r="O21" s="42" t="inlineStr">
         <is>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="Q21" s="12" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="R21" s="12" t="n">
-        <v>44960</v>
+        <v>47388</v>
       </c>
       <c r="S21" s="13" t="inlineStr">
         <is>
@@ -2635,27 +2635,27 @@
       </c>
       <c r="I22" s="39" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="J22" s="39" t="n">
-        <v>21495</v>
+        <v>28247</v>
       </c>
       <c r="K22" s="40" t="inlineStr">
         <is>
-          <t>72.8%</t>
+          <t>64.5%</t>
         </is>
       </c>
       <c r="L22" s="40" t="n">
-        <v>62090</v>
+        <v>54963</v>
       </c>
       <c r="M22" s="41" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="N22" s="41" t="n">
-        <v>1691</v>
+        <v>2065</v>
       </c>
       <c r="O22" s="42" t="inlineStr">
         <is>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="Q22" s="12" t="inlineStr">
         <is>
-          <t>74.8%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="R22" s="12" t="n">
-        <v>63780</v>
+        <v>57028</v>
       </c>
       <c r="S22" s="13" t="inlineStr">
         <is>
@@ -2702,19 +2702,19 @@
       </c>
       <c r="I23" s="39" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>63.5%</t>
         </is>
       </c>
       <c r="J23" s="39" t="n">
-        <v>47049</v>
+        <v>51940</v>
       </c>
       <c r="K23" s="40" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="L23" s="40" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
       <c r="M23" s="41" t="inlineStr">
         <is>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="Q23" s="12" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="R23" s="12" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
       <c r="S23" s="13" t="inlineStr">
         <is>
@@ -2769,43 +2769,43 @@
       </c>
       <c r="I24" s="39" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>61.7%</t>
         </is>
       </c>
       <c r="J24" s="39" t="n">
-        <v>69845</v>
+        <v>71926</v>
       </c>
       <c r="K24" s="40" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>32.3%</t>
         </is>
       </c>
       <c r="L24" s="40" t="n">
-        <v>39868</v>
+        <v>37685</v>
       </c>
       <c r="M24" s="41" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="N24" s="41" t="n">
-        <v>6368</v>
+        <v>6598</v>
       </c>
       <c r="O24" s="42" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="P24" s="42" t="n">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="12" t="inlineStr">
         <is>
-          <t>40.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="R24" s="12" t="n">
-        <v>46765</v>
+        <v>44684</v>
       </c>
       <c r="S24" s="13" t="inlineStr">
         <is>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="I25" s="39" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="J25" s="39" t="n">
-        <v>11652</v>
+        <v>7950</v>
       </c>
       <c r="K25" s="40" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="L25" s="40" t="n">
-        <v>56024</v>
+        <v>68497</v>
       </c>
       <c r="M25" s="41" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="N25" s="41" t="n">
-        <v>35711</v>
+        <v>26940</v>
       </c>
       <c r="O25" s="42" t="inlineStr">
         <is>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="Q25" s="12" t="inlineStr">
         <is>
-          <t>88.7%</t>
+          <t>92.3%</t>
         </is>
       </c>
       <c r="R25" s="12" t="n">
-        <v>91735</v>
+        <v>95437</v>
       </c>
       <c r="S25" s="13" t="inlineStr">
         <is>
@@ -2903,43 +2903,43 @@
       </c>
       <c r="I26" s="39" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="J26" s="39" t="n">
-        <v>16422</v>
+        <v>16351</v>
       </c>
       <c r="K26" s="40" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>74.9%</t>
         </is>
       </c>
       <c r="L26" s="40" t="n">
-        <v>53346</v>
+        <v>53034</v>
       </c>
       <c r="M26" s="41" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="N26" s="41" t="n">
-        <v>483</v>
+        <v>835</v>
       </c>
       <c r="O26" s="42" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P26" s="42" t="n">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="Q26" s="12" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="R26" s="12" t="n">
-        <v>54338</v>
+        <v>54409</v>
       </c>
       <c r="S26" s="13" t="inlineStr">
         <is>
@@ -2970,19 +2970,19 @@
       </c>
       <c r="I27" s="39" t="inlineStr">
         <is>
-          <t>49.9%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="J27" s="39" t="n">
-        <v>56982</v>
+        <v>56361</v>
       </c>
       <c r="K27" s="40" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="L27" s="40" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
       <c r="M27" s="41" t="inlineStr">
         <is>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="Q27" s="12" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="R27" s="12" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
       <c r="S27" s="13" t="inlineStr">
         <is>
@@ -3104,19 +3104,19 @@
       </c>
       <c r="I29" s="45" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="J29" s="45" t="n">
-        <v>46777</v>
+        <v>50220</v>
       </c>
       <c r="K29" s="46" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="L29" s="46" t="n">
-        <v>47266</v>
+        <v>43931</v>
       </c>
       <c r="M29" s="47" t="inlineStr">
         <is>
@@ -3128,19 +3128,19 @@
       </c>
       <c r="O29" s="48" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="P29" s="48" t="n">
-        <v>4777</v>
+        <v>4670</v>
       </c>
       <c r="Q29" s="49" t="inlineStr">
         <is>
-          <t>52.7%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="R29" s="49" t="n">
-        <v>52044</v>
+        <v>48601</v>
       </c>
       <c r="S29" s="13" t="inlineStr">
         <is>
@@ -3301,19 +3301,19 @@
       </c>
       <c r="I6" s="39" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="J6" s="39" t="n">
-        <v>4335</v>
+        <v>2441</v>
       </c>
       <c r="K6" s="40" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>68.7%</t>
         </is>
       </c>
       <c r="L6" s="40" t="n">
-        <v>22341</v>
+        <v>23874</v>
       </c>
       <c r="M6" s="41" t="inlineStr">
         <is>
@@ -3325,19 +3325,19 @@
       </c>
       <c r="O6" s="42" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="P6" s="42" t="n">
-        <v>8052</v>
+        <v>8413</v>
       </c>
       <c r="Q6" s="12" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="R6" s="12" t="n">
-        <v>30393</v>
+        <v>32287</v>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
@@ -3368,19 +3368,19 @@
       </c>
       <c r="I7" s="39" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="J7" s="39" t="n">
-        <v>6022</v>
+        <v>6083</v>
       </c>
       <c r="K7" s="40" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>9149</v>
+        <v>9093</v>
       </c>
       <c r="M7" s="41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="N7" s="41" t="n">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="O7" s="42" t="inlineStr">
         <is>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="Q7" s="12" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="R7" s="12" t="n">
-        <v>10510</v>
+        <v>10449</v>
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
@@ -3435,43 +3435,43 @@
       </c>
       <c r="I8" s="39" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="J8" s="39" t="n">
-        <v>1903</v>
+        <v>2108</v>
       </c>
       <c r="K8" s="40" t="inlineStr">
         <is>
-          <t>75.7%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="L8" s="40" t="n">
-        <v>10143</v>
+        <v>10053</v>
       </c>
       <c r="M8" s="41" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="N8" s="41" t="n">
-        <v>1198</v>
+        <v>1076</v>
       </c>
       <c r="O8" s="42" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="P8" s="42" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="12" t="inlineStr">
         <is>
-          <t>85.8%</t>
+          <t>84.3%</t>
         </is>
       </c>
       <c r="R8" s="12" t="n">
-        <v>11491</v>
+        <v>11286</v>
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
@@ -3510,19 +3510,19 @@
       </c>
       <c r="K9" s="40" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="L9" s="40" t="n">
-        <v>18691</v>
+        <v>19046</v>
       </c>
       <c r="M9" s="41" t="inlineStr">
         <is>
-          <t>24.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="N9" s="41" t="n">
-        <v>6106</v>
+        <v>5750</v>
       </c>
       <c r="O9" s="42" t="inlineStr">
         <is>
@@ -3569,27 +3569,27 @@
       </c>
       <c r="I10" s="39" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="J10" s="39" t="n">
-        <v>3123</v>
+        <v>4194</v>
       </c>
       <c r="K10" s="40" t="inlineStr">
         <is>
-          <t>67.0%</t>
+          <t>57.9%</t>
         </is>
       </c>
       <c r="L10" s="40" t="n">
-        <v>7593</v>
+        <v>6560</v>
       </c>
       <c r="M10" s="41" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N10" s="41" t="n">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="O10" s="42" t="inlineStr">
         <is>
@@ -3601,11 +3601,11 @@
       </c>
       <c r="Q10" s="12" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="R10" s="12" t="n">
-        <v>8213</v>
+        <v>7143</v>
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
@@ -3636,43 +3636,43 @@
       </c>
       <c r="I11" s="39" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="J11" s="39" t="n">
-        <v>2415</v>
+        <v>2247</v>
       </c>
       <c r="K11" s="40" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>70.7%</t>
         </is>
       </c>
       <c r="L11" s="40" t="n">
-        <v>8390</v>
+        <v>8618</v>
       </c>
       <c r="M11" s="41" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="N11" s="41" t="n">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="O11" s="42" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="P11" s="42" t="n">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="12" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>81.6%</t>
         </is>
       </c>
       <c r="R11" s="12" t="n">
-        <v>9767</v>
+        <v>9935</v>
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
@@ -3703,27 +3703,27 @@
       </c>
       <c r="I12" s="45" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>57.5%</t>
         </is>
       </c>
       <c r="J12" s="45" t="n">
-        <v>24837</v>
+        <v>23333</v>
       </c>
       <c r="K12" s="46" t="inlineStr">
         <is>
-          <t>19.2%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="L12" s="46" t="n">
-        <v>7809</v>
+        <v>9012</v>
       </c>
       <c r="M12" s="47" t="inlineStr">
         <is>
-          <t>19.6%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="N12" s="47" t="n">
-        <v>7958</v>
+        <v>8259</v>
       </c>
       <c r="O12" s="48" t="inlineStr">
         <is>
@@ -3735,15 +3735,15 @@
       </c>
       <c r="Q12" s="49" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="R12" s="49" t="n">
-        <v>15767</v>
+        <v>17271</v>
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -3900,43 +3900,43 @@
       </c>
       <c r="I6" s="39" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="J6" s="39" t="n">
-        <v>3921</v>
+        <v>4153</v>
       </c>
       <c r="K6" s="40" t="inlineStr">
         <is>
-          <t>87.8%</t>
+          <t>85.6%</t>
         </is>
       </c>
       <c r="L6" s="40" t="n">
-        <v>60999</v>
+        <v>59461</v>
       </c>
       <c r="M6" s="41" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="N6" s="41" t="n">
-        <v>2032</v>
+        <v>2615</v>
       </c>
       <c r="O6" s="42" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="P6" s="42" t="n">
-        <v>2505</v>
+        <v>3228</v>
       </c>
       <c r="Q6" s="12" t="inlineStr">
         <is>
-          <t>94.4%</t>
+          <t>94.0%</t>
         </is>
       </c>
       <c r="R6" s="12" t="n">
-        <v>65536</v>
+        <v>65304</v>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
@@ -3967,19 +3967,19 @@
       </c>
       <c r="I7" s="39" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="J7" s="39" t="n">
-        <v>6558</v>
+        <v>6401</v>
       </c>
       <c r="K7" s="40" t="inlineStr">
         <is>
-          <t>77.3%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>25551</v>
+        <v>25712</v>
       </c>
       <c r="M7" s="41" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="N7" s="41" t="n">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="O7" s="42" t="inlineStr">
         <is>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="Q7" s="12" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>80.6%</t>
         </is>
       </c>
       <c r="R7" s="12" t="n">
-        <v>26506</v>
+        <v>26663</v>
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
@@ -4034,27 +4034,27 @@
       </c>
       <c r="I8" s="39" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="J8" s="39" t="n">
-        <v>4417</v>
+        <v>4320</v>
       </c>
       <c r="K8" s="40" t="inlineStr">
         <is>
-          <t>75.8%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="L8" s="40" t="n">
-        <v>20308</v>
+        <v>20115</v>
       </c>
       <c r="M8" s="41" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="N8" s="41" t="n">
-        <v>1896</v>
+        <v>2184</v>
       </c>
       <c r="O8" s="42" t="inlineStr">
         <is>
@@ -4062,15 +4062,15 @@
         </is>
       </c>
       <c r="P8" s="42" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="12" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>83.9%</t>
         </is>
       </c>
       <c r="R8" s="12" t="n">
-        <v>22373</v>
+        <v>22470</v>
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
@@ -4101,27 +4101,27 @@
       </c>
       <c r="I9" s="39" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>53.2%</t>
         </is>
       </c>
       <c r="J9" s="39" t="n">
-        <v>25835</v>
+        <v>26398</v>
       </c>
       <c r="K9" s="40" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="L9" s="40" t="n">
-        <v>17003</v>
+        <v>17212</v>
       </c>
       <c r="M9" s="41" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>12.1%</t>
         </is>
       </c>
       <c r="N9" s="41" t="n">
-        <v>6754</v>
+        <v>5983</v>
       </c>
       <c r="O9" s="42" t="inlineStr">
         <is>
@@ -4133,11 +4133,11 @@
       </c>
       <c r="Q9" s="12" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="R9" s="12" t="n">
-        <v>23757</v>
+        <v>23195</v>
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
@@ -4168,43 +4168,43 @@
       </c>
       <c r="I10" s="39" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="J10" s="39" t="n">
-        <v>22518</v>
+        <v>22089</v>
       </c>
       <c r="K10" s="40" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="L10" s="40" t="n">
-        <v>33899</v>
+        <v>35253</v>
       </c>
       <c r="M10" s="41" t="inlineStr">
         <is>
-          <t>14.1%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="N10" s="41" t="n">
-        <v>9673</v>
+        <v>8838</v>
       </c>
       <c r="O10" s="42" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="P10" s="42" t="n">
-        <v>2485</v>
+        <v>2395</v>
       </c>
       <c r="Q10" s="12" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
       <c r="R10" s="12" t="n">
-        <v>46057</v>
+        <v>46486</v>
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
@@ -4302,43 +4302,43 @@
       </c>
       <c r="I12" s="39" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="J12" s="39" t="n">
-        <v>4383</v>
+        <v>4714</v>
       </c>
       <c r="K12" s="40" t="inlineStr">
         <is>
-          <t>54.7%</t>
+          <t>54.9%</t>
         </is>
       </c>
       <c r="L12" s="40" t="n">
-        <v>11112</v>
+        <v>11158</v>
       </c>
       <c r="M12" s="41" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="N12" s="41" t="n">
-        <v>4703</v>
+        <v>4345</v>
       </c>
       <c r="O12" s="42" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="P12" s="42" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="12" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="R12" s="12" t="n">
-        <v>15931</v>
+        <v>15601</v>
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
@@ -4369,43 +4369,43 @@
       </c>
       <c r="I13" s="39" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="J13" s="39" t="n">
-        <v>20352</v>
+        <v>22830</v>
       </c>
       <c r="K13" s="40" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>19987</v>
+        <v>17933</v>
       </c>
       <c r="M13" s="41" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>30.1%</t>
         </is>
       </c>
       <c r="N13" s="41" t="n">
-        <v>18141</v>
+        <v>17778</v>
       </c>
       <c r="O13" s="42" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="P13" s="42" t="n">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="12" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>61.3%</t>
         </is>
       </c>
       <c r="R13" s="12" t="n">
-        <v>38715</v>
+        <v>36238</v>
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
@@ -4436,27 +4436,27 @@
       </c>
       <c r="I14" s="39" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="J14" s="39" t="n">
-        <v>9855</v>
+        <v>10087</v>
       </c>
       <c r="K14" s="40" t="inlineStr">
         <is>
-          <t>56.1%</t>
+          <t>54.7%</t>
         </is>
       </c>
       <c r="L14" s="40" t="n">
-        <v>12728</v>
+        <v>12408</v>
       </c>
       <c r="M14" s="41" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="N14" s="41" t="n">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="O14" s="42" t="inlineStr">
         <is>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="Q14" s="12" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>55.5%</t>
         </is>
       </c>
       <c r="R14" s="12" t="n">
-        <v>12819</v>
+        <v>12586</v>
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
@@ -4503,43 +4503,43 @@
       </c>
       <c r="I15" s="39" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>51.8%</t>
         </is>
       </c>
       <c r="J15" s="39" t="n">
-        <v>13640</v>
+        <v>13942</v>
       </c>
       <c r="K15" s="40" t="inlineStr">
         <is>
-          <t>46.4%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="L15" s="40" t="n">
-        <v>12484</v>
+        <v>11975</v>
       </c>
       <c r="M15" s="41" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="N15" s="41" t="n">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="O15" s="42" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="P15" s="42" t="n">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="Q15" s="12" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="R15" s="12" t="n">
-        <v>13254</v>
+        <v>12952</v>
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
@@ -4570,43 +4570,43 @@
       </c>
       <c r="I16" s="39" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="J16" s="39" t="n">
-        <v>1268</v>
+        <v>990</v>
       </c>
       <c r="K16" s="40" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="L16" s="40" t="n">
-        <v>20927</v>
+        <v>21169</v>
       </c>
       <c r="M16" s="41" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="N16" s="41" t="n">
-        <v>857</v>
+        <v>913</v>
       </c>
       <c r="O16" s="42" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="P16" s="42" t="n">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="12" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="R16" s="12" t="n">
-        <v>22269</v>
+        <v>22547</v>
       </c>
       <c r="S16" s="13" t="inlineStr">
         <is>
@@ -4637,19 +4637,19 @@
       </c>
       <c r="I17" s="39" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="J17" s="39" t="n">
-        <v>99350</v>
+        <v>101694</v>
       </c>
       <c r="K17" s="40" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="L17" s="40" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
       <c r="M17" s="41" t="inlineStr">
         <is>
@@ -4669,11 +4669,11 @@
       </c>
       <c r="Q17" s="12" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="R17" s="12" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
       <c r="S17" s="13" t="inlineStr">
         <is>
@@ -4704,43 +4704,43 @@
       </c>
       <c r="I18" s="39" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>53.5%</t>
         </is>
       </c>
       <c r="J18" s="39" t="n">
-        <v>12811</v>
+        <v>13046</v>
       </c>
       <c r="K18" s="40" t="inlineStr">
         <is>
-          <t>33.5%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="L18" s="40" t="n">
-        <v>8163</v>
+        <v>8551</v>
       </c>
       <c r="M18" s="41" t="inlineStr">
         <is>
-          <t>11.9%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="N18" s="41" t="n">
-        <v>2891</v>
+        <v>2535</v>
       </c>
       <c r="O18" s="42" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="P18" s="42" t="n">
-        <v>499</v>
+        <v>232</v>
       </c>
       <c r="Q18" s="12" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="R18" s="12" t="n">
-        <v>11553</v>
+        <v>11318</v>
       </c>
       <c r="S18" s="13" t="inlineStr">
         <is>
@@ -4771,19 +4771,19 @@
       </c>
       <c r="I19" s="39" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="J19" s="39" t="n">
-        <v>1619</v>
+        <v>1498</v>
       </c>
       <c r="K19" s="40" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="L19" s="40" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
       <c r="M19" s="41" t="inlineStr">
         <is>
@@ -4803,11 +4803,11 @@
       </c>
       <c r="Q19" s="12" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="R19" s="12" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
       <c r="S19" s="13" t="inlineStr">
         <is>
@@ -4850,23 +4850,23 @@
         </is>
       </c>
       <c r="L20" s="40" t="n">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="M20" s="41" t="inlineStr">
         <is>
-          <t>73.9%</t>
+          <t>73.7%</t>
         </is>
       </c>
       <c r="N20" s="41" t="n">
-        <v>21826</v>
+        <v>21783</v>
       </c>
       <c r="O20" s="42" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="P20" s="42" t="n">
-        <v>1543</v>
+        <v>1584</v>
       </c>
       <c r="Q20" s="12" t="inlineStr">
         <is>
@@ -4905,11 +4905,11 @@
       </c>
       <c r="I21" s="39" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="J21" s="39" t="n">
-        <v>20097</v>
+        <v>20070</v>
       </c>
       <c r="K21" s="40" t="inlineStr">
         <is>
@@ -4917,15 +4917,15 @@
         </is>
       </c>
       <c r="L21" s="40" t="n">
-        <v>11952</v>
+        <v>11958</v>
       </c>
       <c r="M21" s="41" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="N21" s="41" t="n">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="O21" s="42" t="inlineStr">
         <is>
@@ -4937,11 +4937,11 @@
       </c>
       <c r="Q21" s="12" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="R21" s="12" t="n">
-        <v>12512</v>
+        <v>12539</v>
       </c>
       <c r="S21" s="13" t="inlineStr">
         <is>
@@ -4972,43 +4972,43 @@
       </c>
       <c r="I22" s="45" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>50.7%</t>
         </is>
       </c>
       <c r="J22" s="45" t="n">
-        <v>46014</v>
+        <v>41178</v>
       </c>
       <c r="K22" s="46" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>12.8%</t>
         </is>
       </c>
       <c r="L22" s="46" t="n">
-        <v>11227</v>
+        <v>10358</v>
       </c>
       <c r="M22" s="47" t="inlineStr">
         <is>
-          <t>24.4%</t>
+          <t>32.7%</t>
         </is>
       </c>
       <c r="N22" s="47" t="n">
-        <v>19775</v>
+        <v>26550</v>
       </c>
       <c r="O22" s="48" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="P22" s="48" t="n">
-        <v>4191</v>
+        <v>3121</v>
       </c>
       <c r="Q22" s="49" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="R22" s="49" t="n">
-        <v>35193</v>
+        <v>40029</v>
       </c>
       <c r="S22" s="13" t="inlineStr">
         <is>
